--- a/Data/Pop.alive.by.age.xlsx
+++ b/Data/Pop.alive.by.age.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cm1om\Documents\Research\Cancer\Bladder\Bladder_cancer_model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E11EE3-7B1D-488A-A910-FC460292B18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B5DF2A-5A95-4B25-9F89-52D781FEC0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6A7B09F-665A-4CAD-99CA-3F54CA8797F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6A7B09F-665A-4CAD-99CA-3F54CA8797F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"> 30-34</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>https://www.ons.gov.uk/peoplepopulationandcommunity/populationandmigration/populationprojections/datasets/tablea21principalprojectionukpopulationinagegroups</t>
+  </si>
+  <si>
+    <t>in thousands</t>
   </si>
 </sst>
 </file>
@@ -95,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +115,14 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,11 +142,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -144,8 +156,10 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Webframes5y" xfId="1" xr:uid="{359FB1FF-9C09-43B5-8E63-FC3A3A62B81F}"/>
   </cellStyles>
@@ -461,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5686C6-7E8D-4CB2-BD1F-E92A8B8FD9EF}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +488,7 @@
       <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -488,6 +502,9 @@
       <c r="C2" s="2">
         <v>2258.4639999999999</v>
       </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -633,6 +650,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{805CD7D0-CE55-4F33-A68D-92047DA16887}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -641,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165F506A-BA91-4AC4-A707-EC626F51E57A}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
